--- a/JADE/JADE/Components/ErrorLog.xlsx
+++ b/JADE/JADE/Components/ErrorLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Ort</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Überarbeiten der Trennen/Zusammenfügen Funktionen (unnötige Übergabe von großen Datenmengen )</t>
   </si>
   <si>
-    <t xml:space="preserve"> bei längeren Token werden nicht alle Zeichen angezeigt (Größe variabel machen)</t>
-  </si>
-  <si>
     <t>Form1/FlowLayoutPanel</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Fehlermeldung bei nicht existenter Datei</t>
   </si>
   <si>
-    <t>done(noch Verbesserungswürdig)</t>
-  </si>
-  <si>
     <t>Fehler bei Vorkommen von 2 Satzendzeichen im Text</t>
   </si>
   <si>
@@ -157,6 +151,15 @@
   </si>
   <si>
     <t>Fehler: trennt beim Segmentieren nebeneinander liegende Zahlen in mehrere Token</t>
+  </si>
+  <si>
+    <t>Installer</t>
+  </si>
+  <si>
+    <t>nach der der Installation, Program nicht ausführbar</t>
+  </si>
+  <si>
+    <t>bei längeren Token werden nicht alle Zeichen angezeigt (Größe variabel machen)</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -203,14 +206,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -512,39 +594,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="115.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="33.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="115.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -594,7 +676,7 @@
     </row>
     <row r="7" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -616,10 +698,10 @@
     </row>
     <row r="9" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
@@ -638,10 +720,10 @@
     </row>
     <row r="11" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -652,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>5</v>
@@ -660,10 +742,10 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
@@ -671,7 +753,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
@@ -682,7 +764,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -693,7 +775,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
@@ -707,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>5</v>
@@ -715,10 +797,10 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
@@ -726,10 +808,10 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>5</v>
@@ -737,32 +819,32 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
@@ -770,10 +852,10 @@
     </row>
     <row r="23" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -781,10 +863,10 @@
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -795,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,15 +888,28 @@
         <v>3</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/JADE/JADE/Components/ErrorLog.xlsx
+++ b/JADE/JADE/Components/ErrorLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Ort</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>bei längeren Token werden nicht alle Zeichen angezeigt (Größe variabel machen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laden von nicht-Savedateien noch Unbehandelt, gibt wahrscheinlich Fehler </t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -911,6 +917,15 @@
       <c r="C28" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
